--- a/data/trans_camb/P23_9_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 16,24</t>
+          <t>-3,37; 17,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 2,85</t>
+          <t>-10,61; 6,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 8,55</t>
+          <t>-14,53; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 9,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 7,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 10,24</t>
+          <t>-3,43; 13,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,57</t>
+          <t>-4,71; 11,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 3,33</t>
+          <t>-3,22; 16,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 12,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 7,37</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 8,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,6%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-30,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 111,34</t>
+          <t>-14,8; 143,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 19,61</t>
+          <t>-44,81; 53,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,9; 60,74</t>
+          <t>-67,13; 37,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 51,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 39,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 55,97</t>
+          <t>-16,54; 104,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 61,66</t>
+          <t>-18,61; 86,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 19,18</t>
+          <t>-15,4; 121,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 45,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 86,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-21,54; 53,94</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-29,29; 57,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,49</t>
+          <t>-4,64; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 6,45</t>
+          <t>-7,21; 5,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,95</t>
+          <t>-10,6; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,18</t>
+          <t>-0,34; 10,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,15</t>
+          <t>-3,41; 6,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,17</t>
+          <t>-8,29; 1,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 8,02</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 4,84</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 1,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>-18,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>-22,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-20,28%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 55,93</t>
+          <t>-24,05; 64,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 49,98</t>
+          <t>-34,89; 43,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 51,76</t>
+          <t>-49,8; 20,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 59,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 40,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 56,83</t>
+          <t>-3,51; 89,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 44,19</t>
+          <t>-19,93; 52,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 30,53</t>
+          <t>-48,46; 13,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 42,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 59,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 36,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 9,84</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 8,69</t>
+          <t>-4,27; 9,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,78</t>
+          <t>-6,07; 6,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,49</t>
+          <t>-11,02; 1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 12,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,7</t>
+          <t>-1,57; 9,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,96</t>
+          <t>0,82; 12,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,76</t>
+          <t>-11,53; -1,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 7,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 7,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; -0,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>-25,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,01%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>-42,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-34,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 83,53</t>
+          <t>-22,82; 96,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 53,03</t>
+          <t>-33,34; 65,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 44,52</t>
+          <t>-57,86; 24,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 98,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 112,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 16,1</t>
+          <t>-8,86; 87,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 70,23</t>
+          <t>2,08; 110,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 67,69</t>
+          <t>-63,96; -10,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 9,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 68,18</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 70,24</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-54,57; -6,14</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,29</t>
+          <t>1,71; 15,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,46</t>
+          <t>-6,83; 4,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,72</t>
+          <t>-1,83; 8,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,64</t>
+          <t>-8,06; 1,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 11,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 1,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-15,81%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 52,65</t>
+          <t>9,04; 128,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 21,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 38,56</t>
+          <t>-43,04; 39,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 50,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 43,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 41,47</t>
+          <t>-10,78; 64,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,97; 41,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 24,79</t>
+          <t>-45,12; 12,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 29,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 85,97</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 13,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 8,8</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 4,52</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 0,45</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 7,48</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 6,89</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 0,7</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 7,18</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 4,84</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; -0,39</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-18,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-14,96%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>32,43%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-16,63%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 68,62</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 35,13</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 3,95</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 54,3</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 49,93</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; 5,74</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 51,76</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 34,99</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-28,56; -2,66</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
